--- a/Running projects/Meezan Bank Head Office/VO/RA FOR MEEZAN Motorize valves.xlsx
+++ b/Running projects/Meezan Bank Head Office/VO/RA FOR MEEZAN Motorize valves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\VO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD63DAB7-8871-4048-B747-5781183B4B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D451A49-DED9-4DC9-868B-98C154BFD8B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="valve" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">valve!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">valve!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Dated:</t>
   </si>
@@ -67,15 +67,9 @@
     <t xml:space="preserve">    C         OTHER</t>
   </si>
   <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>Project:</t>
   </si>
   <si>
-    <t>Taxes Over Head &amp; Profit:</t>
-  </si>
-  <si>
     <t>Meezan Head Office Extension Block 111 karachi.</t>
   </si>
   <si>
@@ -110,18 +104,37 @@
   </si>
   <si>
     <t>Grand Total (A + B + C)</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Over Head &amp; Profit:</t>
+  </si>
+  <si>
+    <t>Add Tax 08%</t>
+  </si>
+  <si>
+    <t>Net Total (inclusive of Tax)</t>
+  </si>
+  <si>
+    <t>Net Total (after Discount)</t>
+  </si>
+  <si>
+    <t>Net Total (exclusive of Tax)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,12 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,7 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -331,26 +338,8 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -391,12 +380,10 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,7 +393,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +401,9 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -494,13 +484,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBF7EE3-06C2-49D7-BC43-B03BBD50B126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="1581150"/>
+          <a:ext cx="6896100" cy="8983484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,9 +607,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,9 +659,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,10 +855,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A6:M31"/>
+  <dimension ref="A6:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,13 +871,13 @@
     <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3">
@@ -824,11 +892,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -837,8 +905,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>23</v>
+      <c r="A8" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -848,8 +916,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>24</v>
+      <c r="A9" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -859,7 +927,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -868,84 +936,84 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="A11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="30" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>21</v>
+      <c r="B15" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
@@ -962,14 +1030,14 @@
         <v>1770000</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -980,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="31" t="s">
-        <v>25</v>
+      <c r="B17" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1005,69 +1073,69 @@
     </row>
     <row r="18" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="28" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="41"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>1</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1083,7 +1151,7 @@
       <c r="A22" s="16">
         <v>2</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1097,8 +1165,8 @@
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="31" t="s">
-        <v>26</v>
+      <c r="B23" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
@@ -1109,65 +1177,65 @@
         <f>SUM(H21:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="27">
         <f>H23+H17</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="28" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="41"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
@@ -1175,11 +1243,11 @@
         <v>12</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29">
         <f>G27*F27</f>
         <v>0</v>
       </c>
@@ -1187,74 +1255,146 @@
     </row>
     <row r="28" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="14">
+      <c r="B28" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="40">
         <f>I23</f>
         <v>1770000</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="14">
+      <c r="B29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="40">
         <f>I28</f>
         <v>1770000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="36">
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="40">
+        <v>229444.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="40">
+        <f>I29-I30</f>
+        <v>1540555.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="30">
         <v>0.2</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="14">
-        <f>I29*20%</f>
-        <v>354000</v>
-      </c>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="22">
-        <f>I30+I29</f>
-        <v>2124000</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="40">
+        <f>I31*20%</f>
+        <v>308111.11200000002</v>
+      </c>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="40">
+        <f>I32+I31</f>
+        <v>1848666.672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="40">
+        <f>I33*8%</f>
+        <v>147893.33376000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="40">
+        <f>I34+I33</f>
+        <v>1996560.0057600001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -1271,8 +1411,6 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
@@ -1280,10 +1418,11 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
